--- a/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_3_resultats_fts.xlsx
+++ b/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_3_resultats_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD15B747-E293-47CA-8D72-D22152D2110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD771DF-429B-4349-9F9A-739869907177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="302">
   <si>
     <t>form_title</t>
   </si>
@@ -806,18 +806,6 @@
     <t>d_duree_sejour</t>
   </si>
   <si>
-    <t>1_Lot:178917</t>
-  </si>
-  <si>
-    <t>2_Lot:192020</t>
-  </si>
-  <si>
-    <t>1_Lot:178917 Exp:18/01/2023</t>
-  </si>
-  <si>
-    <t>2_Lot:192020 Exp:23/03/2023</t>
-  </si>
-  <si>
     <t>regex(.,'^[A-Z]{2}[0-9]{7}$')</t>
   </si>
   <si>
@@ -848,15 +836,6 @@
     <t>select_one ds_list</t>
   </si>
   <si>
-    <t>. &gt; 0 and . &lt;= 50</t>
-  </si>
-  <si>
-    <t>Le numéro doit être entre 1 et 50</t>
-  </si>
-  <si>
-    <t>d_num_grappe</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -884,18 +863,9 @@
     <t>5.b. Entrez le code manuel</t>
   </si>
   <si>
-    <t>3. Veuillez entrer le numéro de la Grappe</t>
-  </si>
-  <si>
     <t>4. Type d'identification</t>
   </si>
   <si>
-    <t>bf_lf_tas1_202304_3_resultats_fts</t>
-  </si>
-  <si>
-    <t>(Avril 2023) Burkina Faso TAS FL - 3. Formulaire Résultat FTS</t>
-  </si>
-  <si>
     <t>BOGODOGO</t>
   </si>
   <si>
@@ -1074,6 +1044,54 @@
   </si>
   <si>
     <t>WENDINSO</t>
+  </si>
+  <si>
+    <t>Sélectionnez la commune</t>
+  </si>
+  <si>
+    <t>Sélectionnez l'école</t>
+  </si>
+  <si>
+    <t>Sélectionnez le code de l'école</t>
+  </si>
+  <si>
+    <t>d_commune</t>
+  </si>
+  <si>
+    <t>d_site</t>
+  </si>
+  <si>
+    <t>d_code_site</t>
+  </si>
+  <si>
+    <t>select_one village_list</t>
+  </si>
+  <si>
+    <t>select_one code_list</t>
+  </si>
+  <si>
+    <t>code_list</t>
+  </si>
+  <si>
+    <t>commune_list = ${d_commune}</t>
+  </si>
+  <si>
+    <t>village_list = ${d_site}</t>
+  </si>
+  <si>
+    <t>select_one commune_list</t>
+  </si>
+  <si>
+    <t>ds_list = ${d_ds}</t>
+  </si>
+  <si>
+    <t>1_Lot:203882 Exp:28/04/2023</t>
+  </si>
+  <si>
+    <t>(Avril 2023) Burkina Faso TAS FL - 3. Formulaire Résultat FTS V2</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202304_3_resultats_fts_v2</t>
   </si>
 </sst>
 </file>
@@ -1632,13 +1650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1704,7 @@
         <v>174</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1710,7 +1728,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>182</v>
@@ -1728,7 +1746,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>183</v>
@@ -1747,41 +1765,67 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="I6" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -1792,80 +1836,66 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="H9" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="E12" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="G12" s="6" t="s">
         <v>157</v>
       </c>
@@ -1873,18 +1903,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -1892,13 +1927,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -1906,13 +1944,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -1920,19 +1958,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -1940,22 +1972,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1963,56 +1992,62 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>171</v>
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
-      <c r="J18" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>165</v>
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
       </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>165</v>
@@ -2023,19 +2058,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -2043,22 +2075,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -2066,101 +2095,107 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>167</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="J23" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F26" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" t="s">
         <v>9</v>
       </c>
@@ -2170,30 +2205,47 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
         <v>153</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2569,11 +2621,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD108"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,6 +2634,7 @@
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2605,7 +2658,7 @@
         <v>159</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2744,10 +2797,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>94</v>
@@ -2755,18 +2808,18 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2777,7 +2830,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2790,40 +2843,39 @@
       <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>206</v>
+      <c r="B22" s="15">
+        <v>203882</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>209</v>
-      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,10 +2883,10 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,10 +2894,10 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,10 +2905,10 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2864,10 +2916,10 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2875,21 +2927,21 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,10 +2949,10 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,10 +2960,10 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2919,10 +2971,10 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,10 +2982,10 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,949 +2993,1501 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="B39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B42" t="s">
-        <v>236</v>
-      </c>
-      <c r="C42" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="D43" s="1"/>
+      <c r="E43" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>159</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" t="s">
-        <v>236</v>
-      </c>
+      <c r="A45" s="18"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F48" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F50" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" t="s">
         <v>228</v>
-      </c>
-      <c r="B55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C55" t="s">
-        <v>247</v>
-      </c>
-      <c r="F55" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" t="s">
         <v>228</v>
-      </c>
-      <c r="B56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" t="s">
-        <v>248</v>
-      </c>
-      <c r="F56" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" t="s">
         <v>228</v>
-      </c>
-      <c r="B57" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" t="s">
-        <v>249</v>
-      </c>
-      <c r="F57" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" t="s">
         <v>228</v>
-      </c>
-      <c r="B58" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" t="s">
-        <v>250</v>
-      </c>
-      <c r="F58" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+      <c r="F59" t="s">
         <v>228</v>
-      </c>
-      <c r="B59" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F59" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" t="s">
         <v>228</v>
-      </c>
-      <c r="B60" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" t="s">
-        <v>252</v>
-      </c>
-      <c r="F60" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" t="s">
         <v>228</v>
-      </c>
-      <c r="B61" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" t="s">
-        <v>253</v>
-      </c>
-      <c r="F61" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" t="s">
         <v>228</v>
-      </c>
-      <c r="B62" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" t="s">
-        <v>254</v>
-      </c>
-      <c r="F62" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>246</v>
+      </c>
+      <c r="F63" t="s">
         <v>228</v>
-      </c>
-      <c r="B63" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" t="s">
-        <v>255</v>
-      </c>
-      <c r="F63" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>247</v>
+      </c>
+      <c r="F64" t="s">
         <v>228</v>
-      </c>
-      <c r="B64" t="s">
-        <v>256</v>
-      </c>
-      <c r="C64" t="s">
-        <v>256</v>
-      </c>
-      <c r="F64" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65" t="s">
         <v>228</v>
-      </c>
-      <c r="B65" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" t="s">
-        <v>257</v>
-      </c>
-      <c r="F65" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s">
+        <v>249</v>
+      </c>
+      <c r="F66" t="s">
         <v>228</v>
       </c>
-      <c r="B66" t="s">
-        <v>258</v>
-      </c>
-      <c r="C66" t="s">
-        <v>258</v>
-      </c>
-      <c r="F66" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B67" t="s">
-        <v>259</v>
-      </c>
-      <c r="C67" t="s">
-        <v>259</v>
-      </c>
-      <c r="F67" t="s">
-        <v>238</v>
-      </c>
+      <c r="A67" s="19"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
+      <c r="A68" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>250</v>
+      </c>
+      <c r="F68" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" t="s">
         <v>227</v>
-      </c>
-      <c r="B69" t="s">
-        <v>260</v>
-      </c>
-      <c r="C69" t="s">
-        <v>260</v>
-      </c>
-      <c r="F69" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>252</v>
+      </c>
+      <c r="F70" t="s">
         <v>227</v>
-      </c>
-      <c r="B70" t="s">
-        <v>261</v>
-      </c>
-      <c r="C70" t="s">
-        <v>261</v>
-      </c>
-      <c r="F70" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" t="s">
         <v>227</v>
-      </c>
-      <c r="B71" t="s">
-        <v>262</v>
-      </c>
-      <c r="C71" t="s">
-        <v>262</v>
-      </c>
-      <c r="F71" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" t="s">
         <v>227</v>
-      </c>
-      <c r="B72" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" t="s">
-        <v>203</v>
-      </c>
-      <c r="F72" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" t="s">
         <v>227</v>
-      </c>
-      <c r="B73" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" t="s">
-        <v>241</v>
-      </c>
-      <c r="F73" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" t="s">
         <v>227</v>
-      </c>
-      <c r="B74" t="s">
-        <v>263</v>
-      </c>
-      <c r="C74" t="s">
-        <v>263</v>
-      </c>
-      <c r="F74" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" t="s">
         <v>227</v>
-      </c>
-      <c r="B75" t="s">
-        <v>264</v>
-      </c>
-      <c r="C75" t="s">
-        <v>264</v>
-      </c>
-      <c r="F75" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" t="s">
         <v>227</v>
-      </c>
-      <c r="B76" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" t="s">
-        <v>265</v>
-      </c>
-      <c r="F76" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" t="s">
         <v>227</v>
-      </c>
-      <c r="B77" t="s">
-        <v>266</v>
-      </c>
-      <c r="C77" t="s">
-        <v>266</v>
-      </c>
-      <c r="F77" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" t="s">
+        <v>258</v>
+      </c>
+      <c r="C78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" t="s">
         <v>227</v>
-      </c>
-      <c r="B78" t="s">
-        <v>267</v>
-      </c>
-      <c r="C78" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F79" t="s">
         <v>227</v>
-      </c>
-      <c r="B79" t="s">
-        <v>268</v>
-      </c>
-      <c r="C79" t="s">
-        <v>268</v>
-      </c>
-      <c r="F79" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" t="s">
         <v>227</v>
-      </c>
-      <c r="B80" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" t="s">
-        <v>269</v>
-      </c>
-      <c r="F80" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" t="s">
+        <v>261</v>
+      </c>
+      <c r="F81" t="s">
         <v>227</v>
-      </c>
-      <c r="B81" t="s">
-        <v>270</v>
-      </c>
-      <c r="C81" t="s">
-        <v>270</v>
-      </c>
-      <c r="F81" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" t="s">
         <v>227</v>
-      </c>
-      <c r="B82" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" t="s">
-        <v>271</v>
-      </c>
-      <c r="F82" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F83" t="s">
         <v>227</v>
-      </c>
-      <c r="B83" t="s">
-        <v>272</v>
-      </c>
-      <c r="C83" t="s">
-        <v>272</v>
-      </c>
-      <c r="F83" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" t="s">
         <v>227</v>
-      </c>
-      <c r="B84" t="s">
-        <v>273</v>
-      </c>
-      <c r="C84" t="s">
-        <v>273</v>
-      </c>
-      <c r="F84" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" t="s">
+        <v>265</v>
+      </c>
+      <c r="F85" t="s">
         <v>227</v>
-      </c>
-      <c r="B85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" t="s">
-        <v>274</v>
-      </c>
-      <c r="F85" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" t="s">
         <v>227</v>
-      </c>
-      <c r="B86" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" t="s">
-        <v>275</v>
-      </c>
-      <c r="F86" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B87" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F87" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B88" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F88" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F89" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="F90" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B91" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="F91" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F92" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C93" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F93" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F94" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B95" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F95" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" t="s">
+        <v>275</v>
+      </c>
+      <c r="F96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F97" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>277</v>
+      </c>
+      <c r="F98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" t="s">
+        <v>222</v>
+      </c>
+      <c r="F100" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" t="s">
+        <v>279</v>
+      </c>
+      <c r="F101" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>280</v>
+      </c>
+      <c r="F102" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" t="s">
+        <v>281</v>
+      </c>
+      <c r="F103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" t="s">
+        <v>282</v>
+      </c>
+      <c r="F104" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" t="s">
+        <v>283</v>
+      </c>
+      <c r="F105" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" t="s">
         <v>284</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C106" t="s">
         <v>284</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F106" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" t="s">
+        <v>285</v>
+      </c>
+      <c r="F107" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="18"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B109">
+        <v>101</v>
+      </c>
+      <c r="C109">
+        <v>101</v>
+      </c>
+      <c r="G109" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B110">
+        <v>102</v>
+      </c>
+      <c r="C110">
+        <v>102</v>
+      </c>
+      <c r="G110" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111">
+        <v>103</v>
+      </c>
+      <c r="C111">
+        <v>103</v>
+      </c>
+      <c r="G111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112">
+        <v>104</v>
+      </c>
+      <c r="C112">
+        <v>104</v>
+      </c>
+      <c r="G112" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B113">
+        <v>105</v>
+      </c>
+      <c r="C113">
+        <v>105</v>
+      </c>
+      <c r="G113" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B114">
+        <v>106</v>
+      </c>
+      <c r="C114">
+        <v>106</v>
+      </c>
+      <c r="G114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115">
+        <v>107</v>
+      </c>
+      <c r="C115">
+        <v>107</v>
+      </c>
+      <c r="G115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B116">
+        <v>108</v>
+      </c>
+      <c r="C116">
+        <v>108</v>
+      </c>
+      <c r="G116" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117">
+        <v>109</v>
+      </c>
+      <c r="C117">
+        <v>109</v>
+      </c>
+      <c r="G117" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118">
+        <v>110</v>
+      </c>
+      <c r="C118">
+        <v>110</v>
+      </c>
+      <c r="G118" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B119">
+        <v>111</v>
+      </c>
+      <c r="C119">
+        <v>111</v>
+      </c>
+      <c r="G119" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B120">
+        <v>112</v>
+      </c>
+      <c r="C120">
+        <v>112</v>
+      </c>
+      <c r="G120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121">
+        <v>113</v>
+      </c>
+      <c r="C121">
+        <v>113</v>
+      </c>
+      <c r="G121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B122">
+        <v>114</v>
+      </c>
+      <c r="C122">
+        <v>114</v>
+      </c>
+      <c r="G122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B123">
+        <v>115</v>
+      </c>
+      <c r="C123">
+        <v>115</v>
+      </c>
+      <c r="G123" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124">
+        <v>116</v>
+      </c>
+      <c r="C124">
+        <v>116</v>
+      </c>
+      <c r="G124" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125">
+        <v>117</v>
+      </c>
+      <c r="C125">
+        <v>117</v>
+      </c>
+      <c r="G125" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B126">
+        <v>118</v>
+      </c>
+      <c r="C126">
+        <v>118</v>
+      </c>
+      <c r="G126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B127">
+        <v>119</v>
+      </c>
+      <c r="C127">
+        <v>119</v>
+      </c>
+      <c r="G127" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B128">
+        <v>120</v>
+      </c>
+      <c r="C128">
+        <v>120</v>
+      </c>
+      <c r="G128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B129">
+        <v>121</v>
+      </c>
+      <c r="C129">
+        <v>121</v>
+      </c>
+      <c r="G129" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B130">
+        <v>122</v>
+      </c>
+      <c r="C130">
+        <v>122</v>
+      </c>
+      <c r="G130" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B131">
+        <v>123</v>
+      </c>
+      <c r="C131">
+        <v>123</v>
+      </c>
+      <c r="G131" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B132">
+        <v>124</v>
+      </c>
+      <c r="C132">
+        <v>124</v>
+      </c>
+      <c r="G132" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133">
+        <v>125</v>
+      </c>
+      <c r="C133">
+        <v>125</v>
+      </c>
+      <c r="G133" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134">
+        <v>126</v>
+      </c>
+      <c r="C134">
+        <v>126</v>
+      </c>
+      <c r="G134" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135">
+        <v>127</v>
+      </c>
+      <c r="C135">
+        <v>127</v>
+      </c>
+      <c r="G135" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B136">
+        <v>128</v>
+      </c>
+      <c r="C136">
+        <v>128</v>
+      </c>
+      <c r="G136" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137">
+        <v>129</v>
+      </c>
+      <c r="C137">
+        <v>129</v>
+      </c>
+      <c r="G137" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B138">
+        <v>130</v>
+      </c>
+      <c r="C138">
+        <v>130</v>
+      </c>
+      <c r="G138" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B139">
+        <v>131</v>
+      </c>
+      <c r="C139">
+        <v>131</v>
+      </c>
+      <c r="G139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B140">
+        <v>132</v>
+      </c>
+      <c r="C140">
+        <v>132</v>
+      </c>
+      <c r="G140" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B141">
+        <v>133</v>
+      </c>
+      <c r="C141">
+        <v>133</v>
+      </c>
+      <c r="G141" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142">
+        <v>134</v>
+      </c>
+      <c r="C142">
+        <v>134</v>
+      </c>
+      <c r="G142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143">
+        <v>135</v>
+      </c>
+      <c r="C143">
+        <v>135</v>
+      </c>
+      <c r="G143" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144">
+        <v>136</v>
+      </c>
+      <c r="C144">
+        <v>136</v>
+      </c>
+      <c r="G144" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B145">
+        <v>137</v>
+      </c>
+      <c r="C145">
+        <v>137</v>
+      </c>
+      <c r="G145" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B146">
+        <v>138</v>
+      </c>
+      <c r="C146">
+        <v>138</v>
+      </c>
+      <c r="G146" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147">
+        <v>139</v>
+      </c>
+      <c r="C147">
+        <v>139</v>
+      </c>
+      <c r="G147" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148">
+        <v>140</v>
+      </c>
+      <c r="C148">
+        <v>140</v>
+      </c>
+      <c r="G148" t="s">
         <v>285</v>
-      </c>
-      <c r="C97" t="s">
-        <v>285</v>
-      </c>
-      <c r="F97" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="F98" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B99" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" t="s">
-        <v>287</v>
-      </c>
-      <c r="F99" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B100" t="s">
-        <v>288</v>
-      </c>
-      <c r="C100" t="s">
-        <v>288</v>
-      </c>
-      <c r="F100" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" t="s">
-        <v>229</v>
-      </c>
-      <c r="C101" t="s">
-        <v>229</v>
-      </c>
-      <c r="F101" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B102" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" t="s">
-        <v>289</v>
-      </c>
-      <c r="F102" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B103" t="s">
-        <v>290</v>
-      </c>
-      <c r="C103" t="s">
-        <v>290</v>
-      </c>
-      <c r="F103" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B104" t="s">
-        <v>291</v>
-      </c>
-      <c r="C104" t="s">
-        <v>291</v>
-      </c>
-      <c r="F104" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B105" t="s">
-        <v>292</v>
-      </c>
-      <c r="C105" t="s">
-        <v>292</v>
-      </c>
-      <c r="F105" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B106" t="s">
-        <v>293</v>
-      </c>
-      <c r="C106" t="s">
-        <v>293</v>
-      </c>
-      <c r="F106" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B107" t="s">
-        <v>294</v>
-      </c>
-      <c r="C107" t="s">
-        <v>294</v>
-      </c>
-      <c r="F107" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B108" t="s">
-        <v>295</v>
-      </c>
-      <c r="C108" t="s">
-        <v>295</v>
-      </c>
-      <c r="F108" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3900,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3926,10 +4530,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
